--- a/data/domestic/domestic_all.xlsx
+++ b/data/domestic/domestic_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NSS\projects\NSS-Capstone\data\domestic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE79BE69-35A1-46B0-BE3F-CE2894FEC849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A0ACE0-D76B-4F0E-825D-A2353F3D6439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{43E00269-F674-4F16-974B-70C98774E0B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Period</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>September 2020</t>
+  </si>
+  <si>
+    <t>Domestic Passenger Load Factor - Total</t>
+  </si>
+  <si>
+    <t>Domestic Passenger Load Factor - Scheduled</t>
+  </si>
+  <si>
+    <t>Domestic Freight Load Factor - Scheduled</t>
+  </si>
+  <si>
+    <t>Domestic Freight Load Factor - Total</t>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -387,6 +399,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,18 +715,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B4C8A3-AD77-458D-9EE4-399A138D674A}">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="19" width="18.77734375" customWidth="1"/>
+    <col min="1" max="23" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,46 +746,58 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -790,47 +816,63 @@
       <c r="F2" s="3">
         <v>1051494</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="8">
+        <f>D2/B2</f>
+        <v>0.79216134389858439</v>
+      </c>
+      <c r="H2" s="8">
+        <f>E2/C2</f>
+        <v>0.79028810964849339</v>
+      </c>
+      <c r="I2" s="4">
         <v>1059947</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>433449</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>436193</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="3">
         <v>49728</v>
       </c>
-      <c r="K2" s="4">
+      <c r="M2" s="4">
         <v>49917</v>
       </c>
-      <c r="L2" s="3">
+      <c r="N2" s="3">
         <v>634742</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>643318</v>
       </c>
-      <c r="N2" s="3">
+      <c r="P2" s="3">
         <v>7332458</v>
       </c>
-      <c r="O2" s="4">
+      <c r="Q2" s="4">
         <v>7390814</v>
       </c>
-      <c r="P2" s="3">
+      <c r="R2" s="3">
         <v>75544</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="S2" s="4">
         <v>78930</v>
       </c>
-      <c r="R2" s="3">
+      <c r="T2" s="3">
         <v>4627982</v>
       </c>
-      <c r="S2" s="4">
+      <c r="U2" s="4">
         <v>4648528</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V2" s="9">
+        <f>T2/P2</f>
+        <v>0.63116379255087451</v>
+      </c>
+      <c r="W2" s="9">
+        <f>U2/Q2</f>
+        <v>0.62896022007860031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -849,47 +891,63 @@
       <c r="F3" s="6">
         <v>940141</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G66" si="0">D3/B3</f>
+        <v>0.82433516468732571</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H66" si="1">E3/C3</f>
+        <v>0.82215267248487511</v>
+      </c>
+      <c r="I3" s="7">
         <v>948730</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
         <v>387757</v>
       </c>
-      <c r="I3" s="7">
+      <c r="K3" s="7">
         <v>390379</v>
       </c>
-      <c r="J3" s="6">
+      <c r="L3" s="6">
         <v>47165</v>
       </c>
-      <c r="K3" s="7">
+      <c r="M3" s="7">
         <v>47337</v>
       </c>
-      <c r="L3" s="6">
+      <c r="N3" s="6">
         <v>569978</v>
       </c>
-      <c r="M3" s="7">
+      <c r="O3" s="7">
         <v>579701</v>
       </c>
-      <c r="N3" s="6">
+      <c r="P3" s="6">
         <v>6678737</v>
       </c>
-      <c r="O3" s="7">
+      <c r="Q3" s="7">
         <v>6735019</v>
       </c>
-      <c r="P3" s="6">
+      <c r="R3" s="6">
         <v>81204</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="S3" s="7">
         <v>85675</v>
       </c>
-      <c r="R3" s="6">
+      <c r="T3" s="6">
         <v>4339362</v>
       </c>
-      <c r="S3" s="7">
+      <c r="U3" s="7">
         <v>4358952</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V66" si="2">T3/P3</f>
+        <v>0.64972793508712801</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W66" si="3">U3/Q3</f>
+        <v>0.64720708286049378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -908,47 +966,63 @@
       <c r="F4" s="3">
         <v>1139517</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85785614146150224</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85595648030556371</v>
+      </c>
+      <c r="I4" s="4">
         <v>1148870</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>473618</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>476526</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>59557</v>
       </c>
-      <c r="K4" s="4">
+      <c r="M4" s="4">
         <v>59753</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
         <v>683908</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>694014</v>
       </c>
-      <c r="N4" s="3">
+      <c r="P4" s="3">
         <v>8172254</v>
       </c>
-      <c r="O4" s="4">
+      <c r="Q4" s="4">
         <v>8223688</v>
       </c>
-      <c r="P4" s="3">
+      <c r="R4" s="3">
         <v>89199</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="S4" s="4">
         <v>92135</v>
       </c>
-      <c r="R4" s="3">
+      <c r="T4" s="3">
         <v>5518977</v>
       </c>
-      <c r="S4" s="4">
+      <c r="U4" s="4">
         <v>5538630</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V4" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67533106533399478</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="3"/>
+        <v>0.6734970976525374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -967,47 +1041,63 @@
       <c r="F5" s="6">
         <v>1114317</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84891987180819228</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.84700331413634611</v>
+      </c>
+      <c r="I5" s="7">
         <v>1123035</v>
       </c>
-      <c r="H5" s="6">
+      <c r="J5" s="6">
         <v>461059</v>
       </c>
-      <c r="I5" s="7">
+      <c r="K5" s="7">
         <v>463557</v>
       </c>
-      <c r="J5" s="6">
+      <c r="L5" s="6">
         <v>57698</v>
       </c>
-      <c r="K5" s="7">
+      <c r="M5" s="7">
         <v>57882</v>
       </c>
-      <c r="L5" s="6">
+      <c r="N5" s="6">
         <v>669813</v>
       </c>
-      <c r="M5" s="7">
+      <c r="O5" s="7">
         <v>680243</v>
       </c>
-      <c r="N5" s="6">
+      <c r="P5" s="6">
         <v>8060491</v>
       </c>
-      <c r="O5" s="7">
+      <c r="Q5" s="7">
         <v>8108068</v>
       </c>
-      <c r="P5" s="6">
+      <c r="R5" s="6">
         <v>81414</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="S5" s="7">
         <v>84093</v>
       </c>
-      <c r="R5" s="6">
+      <c r="T5" s="6">
         <v>5308231</v>
       </c>
-      <c r="S5" s="7">
+      <c r="U5" s="7">
         <v>5325405</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V5" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65854933651064185</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65680319898649098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1026,47 +1116,63 @@
       <c r="F6" s="3">
         <v>1139213</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85584336978794495</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85380411120464161</v>
+      </c>
+      <c r="I6" s="4">
         <v>1149781</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>474089</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>476847</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3">
         <v>60252</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="4">
         <v>60449</v>
       </c>
-      <c r="L6" s="3">
+      <c r="N6" s="3">
         <v>690177</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>702404</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P6" s="3">
         <v>8508708</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="4">
         <v>8573912</v>
       </c>
-      <c r="P6" s="3">
+      <c r="R6" s="3">
         <v>82318</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="4">
         <v>86935</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="3">
         <v>5545698</v>
       </c>
-      <c r="S6" s="4">
+      <c r="U6" s="4">
         <v>5567068</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6517673423509186</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="3"/>
+        <v>0.6493031419030193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1085,47 +1191,63 @@
       <c r="F7" s="6">
         <v>1154641</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.87371161594270386</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.87141806052951609</v>
+      </c>
+      <c r="I7" s="7">
         <v>1167568</v>
       </c>
-      <c r="H7" s="6">
+      <c r="J7" s="6">
         <v>485601</v>
       </c>
-      <c r="I7" s="7">
+      <c r="K7" s="7">
         <v>488888</v>
       </c>
-      <c r="J7" s="6">
+      <c r="L7" s="6">
         <v>61811</v>
       </c>
-      <c r="K7" s="7">
+      <c r="M7" s="7">
         <v>62011</v>
       </c>
-      <c r="L7" s="6">
+      <c r="N7" s="6">
         <v>697448</v>
       </c>
-      <c r="M7" s="7">
+      <c r="O7" s="7">
         <v>711573</v>
       </c>
-      <c r="N7" s="6">
+      <c r="P7" s="6">
         <v>8761546</v>
       </c>
-      <c r="O7" s="7">
+      <c r="Q7" s="7">
         <v>8827653</v>
       </c>
-      <c r="P7" s="6">
+      <c r="R7" s="6">
         <v>83594</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="S7" s="7">
         <v>89146</v>
       </c>
-      <c r="R7" s="6">
+      <c r="T7" s="6">
         <v>5820089</v>
       </c>
-      <c r="S7" s="7">
+      <c r="U7" s="7">
         <v>5842541</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V7" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66427648727747368</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66184533986553395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1144,47 +1266,63 @@
       <c r="F8" s="3">
         <v>1206697</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.88147403383491363</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.87971643947683242</v>
+      </c>
+      <c r="I8" s="4">
         <v>1220081</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>509925</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <v>513050</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>65130</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <v>65324</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>733014</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>749397</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8974449</v>
       </c>
-      <c r="O8" s="4">
+      <c r="Q8" s="4">
         <v>9033107</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>81952</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="S8" s="4">
         <v>84873</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6165485</v>
       </c>
-      <c r="S8" s="4">
+      <c r="U8" s="4">
         <v>6181705</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68700429407978136</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68433873306272142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1203,47 +1341,63 @@
       <c r="F9" s="6">
         <v>1180513</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.86645179213018042</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.86475674447852313</v>
+      </c>
+      <c r="I9" s="7">
         <v>1194171</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
         <v>497423</v>
       </c>
-      <c r="I9" s="7">
+      <c r="K9" s="7">
         <v>500562</v>
       </c>
-      <c r="J9" s="6">
+      <c r="L9" s="6">
         <v>62774</v>
       </c>
-      <c r="K9" s="7">
+      <c r="M9" s="7">
         <v>62978</v>
       </c>
-      <c r="L9" s="6">
+      <c r="N9" s="6">
         <v>724738</v>
       </c>
-      <c r="M9" s="7">
+      <c r="O9" s="7">
         <v>741260</v>
       </c>
-      <c r="N9" s="6">
+      <c r="P9" s="6">
         <v>8962171</v>
       </c>
-      <c r="O9" s="7">
+      <c r="Q9" s="7">
         <v>9019219</v>
       </c>
-      <c r="P9" s="6">
+      <c r="R9" s="6">
         <v>80592</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="S9" s="7">
         <v>84586</v>
       </c>
-      <c r="R9" s="6">
+      <c r="T9" s="6">
         <v>5900772</v>
       </c>
-      <c r="S9" s="7">
+      <c r="U9" s="7">
         <v>5919429</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V9" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65840877171390721</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65631281378132633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1262,47 +1416,63 @@
       <c r="F10" s="3">
         <v>1060559</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8377800647866096</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83590495709511847</v>
+      </c>
+      <c r="I10" s="4">
         <v>1073065</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>445995</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <v>449237</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>55990</v>
       </c>
-      <c r="K10" s="4">
+      <c r="M10" s="4">
         <v>56239</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>658555</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>672803</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7858953</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="4">
         <v>7921903</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>78390</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="S10" s="4">
         <v>80902</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5101390</v>
       </c>
-      <c r="S10" s="4">
+      <c r="U10" s="4">
         <v>5122651</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.64911827313383852</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64664399450485577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1321,47 +1491,63 @@
       <c r="F11" s="6">
         <v>1116061</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.86447966567500678</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.86224399474721813</v>
+      </c>
+      <c r="I11" s="7">
         <v>1126216</v>
       </c>
-      <c r="H11" s="6">
+      <c r="J11" s="6">
         <v>467591</v>
       </c>
-      <c r="I11" s="7">
+      <c r="K11" s="7">
         <v>470687</v>
       </c>
-      <c r="J11" s="6">
+      <c r="L11" s="6">
         <v>60892</v>
       </c>
-      <c r="K11" s="7">
+      <c r="M11" s="7">
         <v>61157</v>
       </c>
-      <c r="L11" s="6">
+      <c r="N11" s="6">
         <v>687735</v>
       </c>
-      <c r="M11" s="7">
+      <c r="O11" s="7">
         <v>698048</v>
       </c>
-      <c r="N11" s="6">
+      <c r="P11" s="6">
         <v>8126945</v>
       </c>
-      <c r="O11" s="7">
+      <c r="Q11" s="7">
         <v>8199228</v>
       </c>
-      <c r="P11" s="6">
+      <c r="R11" s="6">
         <v>80606</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="S11" s="7">
         <v>84205</v>
       </c>
-      <c r="R11" s="6">
+      <c r="T11" s="6">
         <v>5529493</v>
       </c>
-      <c r="S11" s="7">
+      <c r="U11" s="7">
         <v>5553964</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68039010969066482</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67737645544190261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1380,47 +1566,63 @@
       <c r="F12" s="3">
         <v>1080662</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84199537570239191</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.84023665223959443</v>
+      </c>
+      <c r="I12" s="4">
         <v>1089253</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>450578</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <v>453299</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>57151</v>
       </c>
-      <c r="K12" s="4">
+      <c r="M12" s="4">
         <v>57366</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>651194</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>659494</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7878027</v>
       </c>
-      <c r="O12" s="4">
+      <c r="Q12" s="4">
         <v>7945322</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>78529</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="S12" s="4">
         <v>82141</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5205603</v>
       </c>
-      <c r="S12" s="4">
+      <c r="U12" s="4">
         <v>5227894</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V12" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66077496307133754</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65798390549810315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1439,47 +1641,63 @@
       <c r="F13" s="6">
         <v>1121093</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83994236352251384</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83840197301364128</v>
+      </c>
+      <c r="I13" s="7">
         <v>1128912</v>
       </c>
-      <c r="H13" s="6">
+      <c r="J13" s="6">
         <v>467324</v>
       </c>
-      <c r="I13" s="7">
+      <c r="K13" s="7">
         <v>469883</v>
       </c>
-      <c r="J13" s="6">
+      <c r="L13" s="6">
         <v>57870</v>
       </c>
-      <c r="K13" s="7">
+      <c r="M13" s="7">
         <v>58041</v>
       </c>
-      <c r="L13" s="6">
+      <c r="N13" s="6">
         <v>659795</v>
       </c>
-      <c r="M13" s="7">
+      <c r="O13" s="7">
         <v>666651</v>
       </c>
-      <c r="N13" s="6">
+      <c r="P13" s="6">
         <v>8377375</v>
       </c>
-      <c r="O13" s="7">
+      <c r="Q13" s="7">
         <v>8441434</v>
       </c>
-      <c r="P13" s="6">
+      <c r="R13" s="6">
         <v>79733</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="S13" s="7">
         <v>84928</v>
       </c>
-      <c r="R13" s="6">
+      <c r="T13" s="6">
         <v>5434401</v>
       </c>
-      <c r="S13" s="7">
+      <c r="U13" s="7">
         <v>5455226</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V13" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6486997418642475</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64624399124603715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1498,47 +1716,63 @@
       <c r="F14" s="3">
         <v>1102612</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80565045553891279</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.80366747285552065</v>
+      </c>
+      <c r="I14" s="4">
         <v>1112768</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>443333</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <v>446214</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>52474</v>
       </c>
-      <c r="K14" s="4">
+      <c r="M14" s="4">
         <v>52642</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>636765</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>644770</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>7779752</v>
       </c>
-      <c r="O14" s="4">
+      <c r="Q14" s="4">
         <v>7852280</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>62793</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="S14" s="4">
         <v>66621</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>4909201</v>
       </c>
-      <c r="S14" s="4">
+      <c r="U14" s="4">
         <v>4929205</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.63102281409484517</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="3"/>
+        <v>0.62774187879189225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1557,47 +1791,63 @@
       <c r="F15" s="6">
         <v>1002124</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80846860224860628</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.80626975074700202</v>
+      </c>
+      <c r="I15" s="7">
         <v>1012062</v>
       </c>
-      <c r="H15" s="6">
+      <c r="J15" s="6">
         <v>425880</v>
       </c>
-      <c r="I15" s="7">
+      <c r="K15" s="7">
         <v>428676</v>
       </c>
-      <c r="J15" s="6">
+      <c r="L15" s="6">
         <v>51111</v>
       </c>
-      <c r="K15" s="7">
+      <c r="M15" s="7">
         <v>51265</v>
       </c>
-      <c r="L15" s="6">
+      <c r="N15" s="6">
         <v>612178</v>
       </c>
-      <c r="M15" s="7">
+      <c r="O15" s="7">
         <v>621336</v>
       </c>
-      <c r="N15" s="6">
+      <c r="P15" s="6">
         <v>7510707</v>
       </c>
-      <c r="O15" s="7">
+      <c r="Q15" s="7">
         <v>7582914</v>
       </c>
-      <c r="P15" s="6">
+      <c r="R15" s="6">
         <v>65862</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="S15" s="7">
         <v>71710</v>
       </c>
-      <c r="R15" s="6">
+      <c r="T15" s="6">
         <v>4741775</v>
       </c>
-      <c r="S15" s="7">
+      <c r="U15" s="7">
         <v>4762767</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V15" s="9">
+        <f t="shared" si="2"/>
+        <v>0.63133537228918657</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="3"/>
+        <v>0.62809191822563204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1616,47 +1866,63 @@
       <c r="F16" s="3">
         <v>1189095</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85308228749875015</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85093831006895693</v>
+      </c>
+      <c r="I16" s="4">
         <v>1200981</v>
       </c>
-      <c r="H16" s="3">
+      <c r="J16" s="3">
         <v>490811</v>
       </c>
-      <c r="I16" s="4">
+      <c r="K16" s="4">
         <v>493812</v>
       </c>
-      <c r="J16" s="3">
+      <c r="L16" s="3">
         <v>61593</v>
       </c>
-      <c r="K16" s="4">
+      <c r="M16" s="4">
         <v>61763</v>
       </c>
-      <c r="L16" s="3">
+      <c r="N16" s="3">
         <v>697834</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>706698</v>
       </c>
-      <c r="N16" s="3">
+      <c r="P16" s="3">
         <v>9111800</v>
       </c>
-      <c r="O16" s="4">
+      <c r="Q16" s="4">
         <v>9179164</v>
       </c>
-      <c r="P16" s="3">
+      <c r="R16" s="3">
         <v>72084</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="S16" s="4">
         <v>74453</v>
       </c>
-      <c r="R16" s="3">
+      <c r="T16" s="3">
         <v>5768107</v>
       </c>
-      <c r="S16" s="4">
+      <c r="U16" s="4">
         <v>5786008</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V16" s="9">
+        <f t="shared" si="2"/>
+        <v>0.63303705085713036</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="3"/>
+        <v>0.63034149950910567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1675,47 +1941,63 @@
       <c r="F17" s="6">
         <v>1140703</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84081700851323493</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83889521520059263</v>
+      </c>
+      <c r="I17" s="7">
         <v>1151228</v>
       </c>
-      <c r="H17" s="6">
+      <c r="J17" s="6">
         <v>470073</v>
       </c>
-      <c r="I17" s="7">
+      <c r="K17" s="7">
         <v>472838</v>
       </c>
-      <c r="J17" s="6">
+      <c r="L17" s="6">
         <v>58894</v>
       </c>
-      <c r="K17" s="7">
+      <c r="M17" s="7">
         <v>59045</v>
       </c>
-      <c r="L17" s="6">
+      <c r="N17" s="6">
         <v>675647</v>
       </c>
-      <c r="M17" s="7">
+      <c r="O17" s="7">
         <v>684225</v>
       </c>
-      <c r="N17" s="6">
+      <c r="P17" s="6">
         <v>8462719</v>
       </c>
-      <c r="O17" s="7">
+      <c r="Q17" s="7">
         <v>8529117</v>
       </c>
-      <c r="P17" s="6">
+      <c r="R17" s="6">
         <v>81766</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="S17" s="7">
         <v>86146</v>
       </c>
-      <c r="R17" s="6">
+      <c r="T17" s="6">
         <v>5467021</v>
       </c>
-      <c r="S17" s="7">
+      <c r="U17" s="7">
         <v>5486066</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V17" s="9">
+        <f t="shared" si="2"/>
+        <v>0.64601235134948942</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" si="3"/>
+        <v>0.6432161734913473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1734,47 +2016,63 @@
       <c r="F18" s="3">
         <v>1182333</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85853525394355712</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85667800064188449</v>
+      </c>
+      <c r="I18" s="4">
         <v>1193572</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>488324</v>
       </c>
-      <c r="I18" s="4">
+      <c r="K18" s="4">
         <v>490972</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>62752</v>
       </c>
-      <c r="K18" s="4">
+      <c r="M18" s="4">
         <v>62909</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>703029</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>713538</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>8636320</v>
       </c>
-      <c r="O18" s="4">
+      <c r="Q18" s="4">
         <v>8702703</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>83121</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="S18" s="4">
         <v>87712</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>5821389</v>
       </c>
-      <c r="S18" s="4">
+      <c r="U18" s="4">
         <v>5838387</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V18" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67405897419271166</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67087053298268362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -1793,47 +2091,63 @@
       <c r="F19" s="6">
         <v>1212257</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.87614658750082774</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.87407733771729368</v>
+      </c>
+      <c r="I19" s="7">
         <v>1225505</v>
       </c>
-      <c r="H19" s="6">
+      <c r="J19" s="6">
         <v>502946</v>
       </c>
-      <c r="I19" s="7">
+      <c r="K19" s="7">
         <v>506087</v>
       </c>
-      <c r="J19" s="6">
+      <c r="L19" s="6">
         <v>64757</v>
       </c>
-      <c r="K19" s="7">
+      <c r="M19" s="7">
         <v>64923</v>
       </c>
-      <c r="L19" s="6">
+      <c r="N19" s="6">
         <v>713728</v>
       </c>
-      <c r="M19" s="7">
+      <c r="O19" s="7">
         <v>725740</v>
       </c>
-      <c r="N19" s="6">
+      <c r="P19" s="6">
         <v>8948071</v>
       </c>
-      <c r="O19" s="7">
+      <c r="Q19" s="7">
         <v>9025490</v>
       </c>
-      <c r="P19" s="6">
+      <c r="R19" s="6">
         <v>88289</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="S19" s="7">
         <v>92546</v>
       </c>
-      <c r="R19" s="6">
+      <c r="T19" s="6">
         <v>6147099</v>
       </c>
-      <c r="S19" s="7">
+      <c r="U19" s="7">
         <v>6166196</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V19" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68697476808129931</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68319792055611384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1852,47 +2166,63 @@
       <c r="F20" s="3">
         <v>1250852</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.87172175621724612</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.86998069531543754</v>
+      </c>
+      <c r="I20" s="4">
         <v>1263457</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>520558</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K20" s="4">
         <v>523521</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>66136</v>
       </c>
-      <c r="K20" s="4">
+      <c r="M20" s="4">
         <v>66299</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>731408</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>744785</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>9305695</v>
       </c>
-      <c r="O20" s="4">
+      <c r="Q20" s="4">
         <v>9371881</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>86436</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="S20" s="4">
         <v>89679</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>6357329</v>
       </c>
-      <c r="S20" s="4">
+      <c r="U20" s="4">
         <v>6372170</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V20" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68316541644659534</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67992433962829879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -1911,47 +2241,63 @@
       <c r="F21" s="6">
         <v>1233512</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84722802831906419</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="1"/>
+        <v>0.84522005413168999</v>
+      </c>
+      <c r="I21" s="7">
         <v>1247039</v>
       </c>
-      <c r="H21" s="6">
+      <c r="J21" s="6">
         <v>510871</v>
       </c>
-      <c r="I21" s="7">
+      <c r="K21" s="7">
         <v>514156</v>
       </c>
-      <c r="J21" s="6">
+      <c r="L21" s="6">
         <v>63500</v>
       </c>
-      <c r="K21" s="7">
+      <c r="M21" s="7">
         <v>63686</v>
       </c>
-      <c r="L21" s="6">
+      <c r="N21" s="6">
         <v>732587</v>
       </c>
-      <c r="M21" s="7">
+      <c r="O21" s="7">
         <v>747399</v>
       </c>
-      <c r="N21" s="6">
+      <c r="P21" s="6">
         <v>9109034</v>
       </c>
-      <c r="O21" s="7">
+      <c r="Q21" s="7">
         <v>9185103</v>
       </c>
-      <c r="P21" s="6">
+      <c r="R21" s="6">
         <v>87110</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="S21" s="7">
         <v>91130</v>
       </c>
-      <c r="R21" s="6">
+      <c r="T21" s="6">
         <v>6050602</v>
       </c>
-      <c r="S21" s="7">
+      <c r="U21" s="7">
         <v>6069398</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V21" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66424189436552772</v>
+      </c>
+      <c r="W21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66078714631724866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1970,47 +2316,63 @@
       <c r="F22" s="3">
         <v>1070679</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84246479705135191</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="1"/>
+        <v>0.84023069374112502</v>
+      </c>
+      <c r="I22" s="4">
         <v>1084518</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>459340</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <v>462898</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>58620</v>
       </c>
-      <c r="K22" s="4">
+      <c r="M22" s="4">
         <v>58882</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>673331</v>
       </c>
-      <c r="M22" s="4">
+      <c r="O22" s="4">
         <v>686697</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>8084797</v>
       </c>
-      <c r="O22" s="4">
+      <c r="Q22" s="4">
         <v>8165202</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>85093</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="S22" s="4">
         <v>88164</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5386772</v>
       </c>
-      <c r="S22" s="4">
+      <c r="U22" s="4">
         <v>5409953</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V22" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66628413799381725</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66256205296574411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -2029,47 +2391,63 @@
       <c r="F23" s="6">
         <v>1154365</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85410467711343196</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85141075475089512</v>
+      </c>
+      <c r="I23" s="7">
         <v>1167246</v>
       </c>
-      <c r="H23" s="6">
+      <c r="J23" s="6">
         <v>474466</v>
       </c>
-      <c r="I23" s="7">
+      <c r="K23" s="7">
         <v>478240</v>
       </c>
-      <c r="J23" s="6">
+      <c r="L23" s="6">
         <v>61709</v>
       </c>
-      <c r="K23" s="7">
+      <c r="M23" s="7">
         <v>61987</v>
       </c>
-      <c r="L23" s="6">
+      <c r="N23" s="6">
         <v>688366</v>
       </c>
-      <c r="M23" s="7">
+      <c r="O23" s="7">
         <v>699667</v>
       </c>
-      <c r="N23" s="6">
+      <c r="P23" s="6">
         <v>8390295</v>
       </c>
-      <c r="O23" s="7">
+      <c r="Q23" s="7">
         <v>8490895</v>
       </c>
-      <c r="P23" s="6">
+      <c r="R23" s="6">
         <v>89820</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="S23" s="7">
         <v>95407</v>
       </c>
-      <c r="R23" s="6">
+      <c r="T23" s="6">
         <v>5661743</v>
       </c>
-      <c r="S23" s="7">
+      <c r="U23" s="7">
         <v>5690639</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V23" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67479665494479035</v>
+      </c>
+      <c r="W23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67020484884102327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2088,47 +2466,63 @@
       <c r="F24" s="3">
         <v>1110622</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84725977022190524</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.84487239743046239</v>
+      </c>
+      <c r="I24" s="4">
         <v>1122543</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>458490</v>
       </c>
-      <c r="I24" s="4">
+      <c r="K24" s="4">
         <v>462106</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>59269</v>
       </c>
-      <c r="K24" s="4">
+      <c r="M24" s="4">
         <v>59502</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>658172</v>
       </c>
-      <c r="M24" s="4">
+      <c r="O24" s="4">
         <v>668097</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>8174082</v>
       </c>
-      <c r="O24" s="4">
+      <c r="Q24" s="4">
         <v>8259690</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>86794</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="S24" s="4">
         <v>89529</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5454331</v>
       </c>
-      <c r="S24" s="4">
+      <c r="U24" s="4">
         <v>5477636</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V24" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66727138289045795</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66317694731884613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -2147,47 +2541,63 @@
       <c r="F25" s="6">
         <v>1161924</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83430554343783214</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.8321053781704586</v>
+      </c>
+      <c r="I25" s="7">
         <v>1172594</v>
       </c>
-      <c r="H25" s="6">
+      <c r="J25" s="6">
         <v>475832</v>
       </c>
-      <c r="I25" s="7">
+      <c r="K25" s="7">
         <v>478950</v>
       </c>
-      <c r="J25" s="6">
+      <c r="L25" s="6">
         <v>59178</v>
       </c>
-      <c r="K25" s="7">
+      <c r="M25" s="7">
         <v>59350</v>
       </c>
-      <c r="L25" s="6">
+      <c r="N25" s="6">
         <v>662172</v>
       </c>
-      <c r="M25" s="7">
+      <c r="O25" s="7">
         <v>670236</v>
       </c>
-      <c r="N25" s="6">
+      <c r="P25" s="6">
         <v>8830172</v>
       </c>
-      <c r="O25" s="7">
+      <c r="Q25" s="7">
         <v>8895578</v>
       </c>
-      <c r="P25" s="6">
+      <c r="R25" s="6">
         <v>87261</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="S25" s="7">
         <v>90302</v>
       </c>
-      <c r="R25" s="6">
+      <c r="T25" s="6">
         <v>5615550</v>
       </c>
-      <c r="S25" s="7">
+      <c r="U25" s="7">
         <v>5632850</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V25" s="9">
+        <f t="shared" si="2"/>
+        <v>0.63595023970088016</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="3"/>
+        <v>0.6332191117879018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2206,47 +2616,63 @@
       <c r="F26" s="3">
         <v>1102612</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.79475951445088167</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="1"/>
+        <v>0.79210586680907202</v>
+      </c>
+      <c r="I26" s="4">
         <v>1112768</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>457936</v>
       </c>
-      <c r="I26" s="4">
+      <c r="K26" s="4">
         <v>461420</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>54109</v>
       </c>
-      <c r="K26" s="4">
+      <c r="M26" s="4">
         <v>54297</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>645181</v>
       </c>
-      <c r="M26" s="4">
+      <c r="O26" s="4">
         <v>653444</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>8174969</v>
       </c>
-      <c r="O26" s="4">
+      <c r="Q26" s="4">
         <v>8265690</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>82689</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="S26" s="4">
         <v>87041</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>5136520</v>
       </c>
-      <c r="S26" s="4">
+      <c r="U26" s="4">
         <v>5159117</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V26" s="9">
+        <f t="shared" si="2"/>
+        <v>0.62832287192771008</v>
+      </c>
+      <c r="W26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.62416047541100617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
@@ -2265,47 +2691,63 @@
       <c r="F27" s="6">
         <v>1002124</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80932464679951166</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="1"/>
+        <v>0.80673758258229755</v>
+      </c>
+      <c r="I27" s="7">
         <v>1012062</v>
       </c>
-      <c r="H27" s="6">
+      <c r="J27" s="6">
         <v>416743</v>
       </c>
-      <c r="I27" s="7">
+      <c r="K27" s="7">
         <v>419997</v>
       </c>
-      <c r="J27" s="6">
+      <c r="L27" s="6">
         <v>51078</v>
       </c>
-      <c r="K27" s="7">
+      <c r="M27" s="7">
         <v>51252</v>
       </c>
-      <c r="L27" s="6">
+      <c r="N27" s="6">
         <v>592064</v>
       </c>
-      <c r="M27" s="7">
+      <c r="O27" s="7">
         <v>600832</v>
       </c>
-      <c r="N27" s="6">
+      <c r="P27" s="6">
         <v>7462653</v>
       </c>
-      <c r="O27" s="7">
+      <c r="Q27" s="7">
         <v>7532736</v>
       </c>
-      <c r="P27" s="6">
+      <c r="R27" s="6">
         <v>76931</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="S27" s="7">
         <v>81381</v>
       </c>
-      <c r="R27" s="6">
+      <c r="T27" s="6">
         <v>4761362</v>
       </c>
-      <c r="S27" s="7">
+      <c r="U27" s="7">
         <v>4783023</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V27" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6380253778381495</v>
+      </c>
+      <c r="W27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.63496490518186222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
@@ -2324,47 +2766,63 @@
       <c r="F28" s="3">
         <v>1189095</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85530922570630274</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85268886511552966</v>
+      </c>
+      <c r="I28" s="4">
         <v>1200981</v>
       </c>
-      <c r="H28" s="3">
+      <c r="J28" s="3">
         <v>495372</v>
       </c>
-      <c r="I28" s="4">
+      <c r="K28" s="4">
         <v>499316</v>
       </c>
-      <c r="J28" s="3">
+      <c r="L28" s="3">
         <v>63963</v>
       </c>
-      <c r="K28" s="4">
+      <c r="M28" s="4">
         <v>64181</v>
       </c>
-      <c r="L28" s="3">
+      <c r="N28" s="3">
         <v>697006</v>
       </c>
-      <c r="M28" s="4">
+      <c r="O28" s="4">
         <v>707188</v>
       </c>
-      <c r="N28" s="3">
+      <c r="P28" s="3">
         <v>8951586</v>
       </c>
-      <c r="O28" s="4">
+      <c r="Q28" s="4">
         <v>9040681</v>
       </c>
-      <c r="P28" s="3">
+      <c r="R28" s="3">
         <v>93490</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="S28" s="4">
         <v>98024</v>
       </c>
-      <c r="R28" s="3">
+      <c r="T28" s="3">
         <v>6013704</v>
       </c>
-      <c r="S28" s="4">
+      <c r="U28" s="4">
         <v>6038731</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V28" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67180318660849592</v>
+      </c>
+      <c r="W28" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66795089883162562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -2383,47 +2841,63 @@
       <c r="F29" s="6">
         <v>1140703</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85209462283834014</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="1"/>
+        <v>0.84984972593284214</v>
+      </c>
+      <c r="I29" s="7">
         <v>1151228</v>
       </c>
-      <c r="H29" s="6">
+      <c r="J29" s="6">
         <v>476532</v>
       </c>
-      <c r="I29" s="7">
+      <c r="K29" s="7">
         <v>479849</v>
       </c>
-      <c r="J29" s="6">
+      <c r="L29" s="6">
         <v>61099</v>
       </c>
-      <c r="K29" s="7">
+      <c r="M29" s="7">
         <v>61292</v>
       </c>
-      <c r="L29" s="6">
+      <c r="N29" s="6">
         <v>673402</v>
       </c>
-      <c r="M29" s="7">
+      <c r="O29" s="7">
         <v>683214</v>
       </c>
-      <c r="N29" s="6">
+      <c r="P29" s="6">
         <v>8573932</v>
       </c>
-      <c r="O29" s="7">
+      <c r="Q29" s="7">
         <v>8637650</v>
       </c>
-      <c r="P29" s="6">
+      <c r="R29" s="6">
         <v>89508</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="S29" s="7">
         <v>93058</v>
       </c>
-      <c r="R29" s="6">
+      <c r="T29" s="6">
         <v>5759938</v>
       </c>
-      <c r="S29" s="7">
+      <c r="U29" s="7">
         <v>5780464</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V29" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67179655728550214</v>
+      </c>
+      <c r="W29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66921720606878032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -2442,47 +2916,63 @@
       <c r="F30" s="3">
         <v>1182333</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85735609309856886</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85543768340170423</v>
+      </c>
+      <c r="I30" s="4">
         <v>1193572</v>
       </c>
-      <c r="H30" s="3">
+      <c r="J30" s="3">
         <v>495049</v>
       </c>
-      <c r="I30" s="4">
+      <c r="K30" s="4">
         <v>498310</v>
       </c>
-      <c r="J30" s="3">
+      <c r="L30" s="3">
         <v>64443</v>
       </c>
-      <c r="K30" s="4">
+      <c r="M30" s="4">
         <v>64633</v>
       </c>
-      <c r="L30" s="3">
+      <c r="N30" s="3">
         <v>706844</v>
       </c>
-      <c r="M30" s="4">
+      <c r="O30" s="4">
         <v>718125</v>
       </c>
-      <c r="N30" s="3">
+      <c r="P30" s="3">
         <v>8910966</v>
       </c>
-      <c r="O30" s="4">
+      <c r="Q30" s="4">
         <v>8972758</v>
       </c>
-      <c r="P30" s="3">
+      <c r="R30" s="3">
         <v>95067</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="S30" s="4">
         <v>98902</v>
       </c>
-      <c r="R30" s="3">
+      <c r="T30" s="3">
         <v>6036401</v>
       </c>
-      <c r="S30" s="4">
+      <c r="U30" s="4">
         <v>6056218</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V30" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67741263966218701</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67495612831639951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -2501,47 +2991,63 @@
       <c r="F31" s="6">
         <v>1212257</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.87169974547123152</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="1"/>
+        <v>0.86946890066206928</v>
+      </c>
+      <c r="I31" s="7">
         <v>1225505</v>
       </c>
-      <c r="H31" s="6">
+      <c r="J31" s="6">
         <v>512667</v>
       </c>
-      <c r="I31" s="7">
+      <c r="K31" s="7">
         <v>516349</v>
       </c>
-      <c r="J31" s="6">
+      <c r="L31" s="6">
         <v>66746</v>
       </c>
-      <c r="K31" s="7">
+      <c r="M31" s="7">
         <v>66926</v>
       </c>
-      <c r="L31" s="6">
+      <c r="N31" s="6">
         <v>718966</v>
       </c>
-      <c r="M31" s="7">
+      <c r="O31" s="7">
         <v>731718</v>
       </c>
-      <c r="N31" s="6">
+      <c r="P31" s="6">
         <v>9288425</v>
       </c>
-      <c r="O31" s="7">
+      <c r="Q31" s="7">
         <v>9355215</v>
       </c>
-      <c r="P31" s="6">
+      <c r="R31" s="6">
         <v>99782</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="S31" s="7">
         <v>104060</v>
       </c>
-      <c r="R31" s="6">
+      <c r="T31" s="6">
         <v>6386225</v>
       </c>
-      <c r="S31" s="7">
+      <c r="U31" s="7">
         <v>6408593</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V31" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68754659697419096</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68502893840494317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -2560,47 +3066,63 @@
       <c r="F32" s="3">
         <v>1250852</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.86937651902220547</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="1"/>
+        <v>0.86735338287205355</v>
+      </c>
+      <c r="I32" s="4">
         <v>1263457</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>532583</v>
       </c>
-      <c r="I32" s="4">
+      <c r="K32" s="4">
         <v>535910</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>68575</v>
       </c>
-      <c r="K32" s="4">
+      <c r="M32" s="4">
         <v>68725</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>739824</v>
       </c>
-      <c r="M32" s="4">
+      <c r="O32" s="4">
         <v>753012</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>10165889</v>
       </c>
-      <c r="O32" s="4">
+      <c r="Q32" s="4">
         <v>10235990</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>93413</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="S32" s="4">
         <v>97304</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>6638071</v>
       </c>
-      <c r="S32" s="4">
+      <c r="U32" s="4">
         <v>6655524</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V32" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65297496362590624</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65020813814784895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -2619,47 +3141,63 @@
       <c r="F33" s="6">
         <v>1233512</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85373909770934975</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85173015214662695</v>
+      </c>
+      <c r="I33" s="7">
         <v>1247039</v>
       </c>
-      <c r="H33" s="6">
+      <c r="J33" s="6">
         <v>522651</v>
       </c>
-      <c r="I33" s="7">
+      <c r="K33" s="7">
         <v>526294</v>
       </c>
-      <c r="J33" s="6">
+      <c r="L33" s="6">
         <v>66665</v>
       </c>
-      <c r="K33" s="7">
+      <c r="M33" s="7">
         <v>66856</v>
       </c>
-      <c r="L33" s="6">
+      <c r="N33" s="6">
         <v>735639</v>
       </c>
-      <c r="M33" s="7">
+      <c r="O33" s="7">
         <v>749836</v>
       </c>
-      <c r="N33" s="6">
+      <c r="P33" s="6">
         <v>10031271</v>
       </c>
-      <c r="O33" s="7">
+      <c r="Q33" s="7">
         <v>10100692</v>
       </c>
-      <c r="P33" s="6">
+      <c r="R33" s="6">
         <v>98048</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="S33" s="7">
         <v>102975</v>
       </c>
-      <c r="R33" s="6">
+      <c r="T33" s="6">
         <v>6392138</v>
       </c>
-      <c r="S33" s="7">
+      <c r="U33" s="7">
         <v>6412432</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V33" s="9">
+        <f t="shared" si="2"/>
+        <v>0.63722114575510924</v>
+      </c>
+      <c r="W33" s="9">
+        <f t="shared" si="3"/>
+        <v>0.63485076072015656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
@@ -2678,47 +3216,63 @@
       <c r="F34" s="3">
         <v>1070679</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.82178851923866536</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.81906980826856279</v>
+      </c>
+      <c r="I34" s="4">
         <v>1084518</v>
       </c>
-      <c r="H34" s="3">
+      <c r="J34" s="3">
         <v>453935</v>
       </c>
-      <c r="I34" s="4">
+      <c r="K34" s="4">
         <v>458066</v>
       </c>
-      <c r="J34" s="3">
+      <c r="L34" s="3">
         <v>57145</v>
       </c>
-      <c r="K34" s="4">
+      <c r="M34" s="4">
         <v>57405</v>
       </c>
-      <c r="L34" s="3">
+      <c r="N34" s="3">
         <v>652255</v>
       </c>
-      <c r="M34" s="4">
+      <c r="O34" s="4">
         <v>666189</v>
       </c>
-      <c r="N34" s="3">
+      <c r="P34" s="3">
         <v>8635518</v>
       </c>
-      <c r="O34" s="4">
+      <c r="Q34" s="4">
         <v>8739935</v>
       </c>
-      <c r="P34" s="3">
+      <c r="R34" s="3">
         <v>90807</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="S34" s="4">
         <v>94718</v>
       </c>
-      <c r="R34" s="3">
+      <c r="T34" s="3">
         <v>5316113</v>
       </c>
-      <c r="S34" s="4">
+      <c r="U34" s="4">
         <v>5340618</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V34" s="9">
+        <f t="shared" si="2"/>
+        <v>0.61561020427494906</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" si="3"/>
+        <v>0.61105923556639719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>52</v>
       </c>
@@ -2737,47 +3291,63 @@
       <c r="F35" s="6">
         <v>1154365</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85664007815614895</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85360810655502173</v>
+      </c>
+      <c r="I35" s="7">
         <v>1167246</v>
       </c>
-      <c r="H35" s="6">
+      <c r="J35" s="6">
         <v>487984</v>
       </c>
-      <c r="I35" s="7">
+      <c r="K35" s="7">
         <v>492268</v>
       </c>
-      <c r="J35" s="6">
+      <c r="L35" s="6">
         <v>64625</v>
       </c>
-      <c r="K35" s="7">
+      <c r="M35" s="7">
         <v>64908</v>
       </c>
-      <c r="L35" s="6">
+      <c r="N35" s="6">
         <v>692007</v>
       </c>
-      <c r="M35" s="7">
+      <c r="O35" s="7">
         <v>703534</v>
       </c>
-      <c r="N35" s="6">
+      <c r="P35" s="6">
         <v>8850162</v>
       </c>
-      <c r="O35" s="7">
+      <c r="Q35" s="7">
         <v>8939079</v>
       </c>
-      <c r="P35" s="6">
+      <c r="R35" s="6">
         <v>95859</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="S35" s="7">
         <v>100967</v>
       </c>
-      <c r="R35" s="6">
+      <c r="T35" s="6">
         <v>5962047</v>
       </c>
-      <c r="S35" s="7">
+      <c r="U35" s="7">
         <v>5991126</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V35" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67366529561831745</v>
+      </c>
+      <c r="W35" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67021736803086762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -2796,47 +3366,63 @@
       <c r="F36" s="3">
         <v>1110622</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85778478835570737</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85484747518245896</v>
+      </c>
+      <c r="I36" s="4">
         <v>1122543</v>
       </c>
-      <c r="H36" s="3">
+      <c r="J36" s="3">
         <v>466377</v>
       </c>
-      <c r="I36" s="4">
+      <c r="K36" s="4">
         <v>470568</v>
       </c>
-      <c r="J36" s="3">
+      <c r="L36" s="3">
         <v>61911</v>
       </c>
-      <c r="K36" s="4">
+      <c r="M36" s="4">
         <v>62162</v>
       </c>
-      <c r="L36" s="3">
+      <c r="N36" s="3">
         <v>656964</v>
       </c>
-      <c r="M36" s="4">
+      <c r="O36" s="4">
         <v>666797</v>
       </c>
-      <c r="N36" s="3">
+      <c r="P36" s="3">
         <v>8810932</v>
       </c>
-      <c r="O36" s="4">
+      <c r="Q36" s="4">
         <v>8895255</v>
       </c>
-      <c r="P36" s="3">
+      <c r="R36" s="3">
         <v>92450</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="S36" s="4">
         <v>95668</v>
       </c>
-      <c r="R36" s="3">
+      <c r="T36" s="3">
         <v>5722935</v>
       </c>
-      <c r="S36" s="4">
+      <c r="U36" s="4">
         <v>5749013</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V36" s="9">
+        <f t="shared" si="2"/>
+        <v>0.64952663350483242</v>
+      </c>
+      <c r="W36" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64630108973829303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
@@ -2855,47 +3441,63 @@
       <c r="F37" s="6">
         <v>1161924</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8350549344500946</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83264763891663429</v>
+      </c>
+      <c r="I37" s="7">
         <v>1172594</v>
       </c>
-      <c r="H37" s="6">
+      <c r="J37" s="6">
         <v>486370</v>
       </c>
-      <c r="I37" s="7">
+      <c r="K37" s="7">
         <v>490110</v>
       </c>
-      <c r="J37" s="6">
+      <c r="L37" s="6">
         <v>61374</v>
       </c>
-      <c r="K37" s="7">
+      <c r="M37" s="7">
         <v>61577</v>
       </c>
-      <c r="L37" s="6">
+      <c r="N37" s="6">
         <v>667224</v>
       </c>
-      <c r="M37" s="7">
+      <c r="O37" s="7">
         <v>675954</v>
       </c>
-      <c r="N37" s="6">
+      <c r="P37" s="6">
         <v>8922948</v>
       </c>
-      <c r="O37" s="7">
+      <c r="Q37" s="7">
         <v>9001703</v>
       </c>
-      <c r="P37" s="6">
+      <c r="R37" s="6">
         <v>92242</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="S37" s="7">
         <v>95891</v>
       </c>
-      <c r="R37" s="6">
+      <c r="T37" s="6">
         <v>5841322</v>
       </c>
-      <c r="S37" s="7">
+      <c r="U37" s="7">
         <v>5864319</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V37" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6546403722177917</v>
+      </c>
+      <c r="W37" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65146772782883422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -2914,47 +3516,63 @@
       <c r="F38" s="3">
         <v>1122042</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.78876946648990975</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="1"/>
+        <v>0.78635211373208747</v>
+      </c>
+      <c r="I38" s="4">
         <v>1132627</v>
       </c>
-      <c r="H38" s="3">
+      <c r="J38" s="3">
         <v>468923</v>
       </c>
-      <c r="I38" s="4">
+      <c r="K38" s="4">
         <v>472529</v>
       </c>
-      <c r="J38" s="3">
+      <c r="L38" s="3">
         <v>55830</v>
       </c>
-      <c r="K38" s="4">
+      <c r="M38" s="4">
         <v>55998</v>
       </c>
-      <c r="L38" s="3">
+      <c r="N38" s="3">
         <v>653359</v>
       </c>
-      <c r="M38" s="4">
+      <c r="O38" s="4">
         <v>662448</v>
       </c>
-      <c r="N38" s="3">
+      <c r="P38" s="3">
         <v>8403725</v>
       </c>
-      <c r="O38" s="4">
+      <c r="Q38" s="4">
         <v>8470646</v>
       </c>
-      <c r="P38" s="3">
+      <c r="R38" s="3">
         <v>79103</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="S38" s="4">
         <v>83060</v>
       </c>
-      <c r="R38" s="3">
+      <c r="T38" s="3">
         <v>5294953</v>
       </c>
-      <c r="S38" s="4">
+      <c r="U38" s="4">
         <v>5314461</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V38" s="9">
+        <f t="shared" si="2"/>
+        <v>0.63007214062811434</v>
+      </c>
+      <c r="W38" s="9">
+        <f t="shared" si="3"/>
+        <v>0.62739736733184226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>56</v>
       </c>
@@ -2973,47 +3591,63 @@
       <c r="F39" s="6">
         <v>1043895</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.81787801592778653</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="1"/>
+        <v>0.81523050784383844</v>
+      </c>
+      <c r="I39" s="7">
         <v>1055092</v>
       </c>
-      <c r="H39" s="6">
+      <c r="J39" s="6">
         <v>432034</v>
       </c>
-      <c r="I39" s="7">
+      <c r="K39" s="7">
         <v>435815</v>
       </c>
-      <c r="J39" s="6">
+      <c r="L39" s="6">
         <v>54078</v>
       </c>
-      <c r="K39" s="7">
+      <c r="M39" s="7">
         <v>54261</v>
       </c>
-      <c r="L39" s="6">
+      <c r="N39" s="6">
         <v>600506</v>
       </c>
-      <c r="M39" s="7">
+      <c r="O39" s="7">
         <v>609579</v>
       </c>
-      <c r="N39" s="6">
+      <c r="P39" s="6">
         <v>7727854</v>
       </c>
-      <c r="O39" s="7">
+      <c r="Q39" s="7">
         <v>7814191</v>
       </c>
-      <c r="P39" s="6">
+      <c r="R39" s="6">
         <v>79160</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="S39" s="7">
         <v>85752</v>
       </c>
-      <c r="R39" s="6">
+      <c r="T39" s="6">
         <v>5063711</v>
       </c>
-      <c r="S39" s="7">
+      <c r="U39" s="7">
         <v>5088713</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V39" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65525448591549473</v>
+      </c>
+      <c r="W39" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65121430996503671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
@@ -3032,47 +3666,63 @@
       <c r="F40" s="3">
         <v>1211527</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8609354418049584</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85800785286302084</v>
+      </c>
+      <c r="I40" s="4">
         <v>1224315</v>
       </c>
-      <c r="H40" s="3">
+      <c r="J40" s="3">
         <v>507380</v>
       </c>
-      <c r="I40" s="4">
+      <c r="K40" s="4">
         <v>511665</v>
       </c>
-      <c r="J40" s="3">
+      <c r="L40" s="3">
         <v>66643</v>
       </c>
-      <c r="K40" s="4">
+      <c r="M40" s="4">
         <v>66856</v>
       </c>
-      <c r="L40" s="3">
+      <c r="N40" s="3">
         <v>698481</v>
       </c>
-      <c r="M40" s="4">
+      <c r="O40" s="4">
         <v>708988</v>
       </c>
-      <c r="N40" s="3">
+      <c r="P40" s="3">
         <v>9126375</v>
       </c>
-      <c r="O40" s="4">
+      <c r="Q40" s="4">
         <v>9199034</v>
       </c>
-      <c r="P40" s="3">
+      <c r="R40" s="3">
         <v>88673</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="S40" s="4">
         <v>90941</v>
       </c>
-      <c r="R40" s="3">
+      <c r="T40" s="3">
         <v>6302710</v>
       </c>
-      <c r="S40" s="4">
+      <c r="U40" s="4">
         <v>6325024</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V40" s="9">
+        <f t="shared" si="2"/>
+        <v>0.69060388160688113</v>
+      </c>
+      <c r="W40" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68757480405007743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>58</v>
       </c>
@@ -3091,47 +3741,63 @@
       <c r="F41" s="6">
         <v>1192345</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84341709239512452</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="1"/>
+        <v>0.84124064564673207</v>
+      </c>
+      <c r="I41" s="7">
         <v>1203113</v>
       </c>
-      <c r="H41" s="6">
+      <c r="J41" s="6">
         <v>499987</v>
       </c>
-      <c r="I41" s="7">
+      <c r="K41" s="7">
         <v>503610</v>
       </c>
-      <c r="J41" s="6">
+      <c r="L41" s="6">
         <v>64557</v>
       </c>
-      <c r="K41" s="7">
+      <c r="M41" s="7">
         <v>64744</v>
       </c>
-      <c r="L41" s="6">
+      <c r="N41" s="6">
         <v>695316</v>
       </c>
-      <c r="M41" s="7">
+      <c r="O41" s="7">
         <v>704833</v>
       </c>
-      <c r="N41" s="6">
+      <c r="P41" s="6">
         <v>8967125</v>
       </c>
-      <c r="O41" s="7">
+      <c r="Q41" s="7">
         <v>9041140</v>
       </c>
-      <c r="P41" s="6">
+      <c r="R41" s="6">
         <v>86749</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="S41" s="7">
         <v>90535</v>
       </c>
-      <c r="R41" s="6">
+      <c r="T41" s="6">
         <v>6062199</v>
       </c>
-      <c r="S41" s="7">
+      <c r="U41" s="7">
         <v>6083261</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V41" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67604711655073391</v>
+      </c>
+      <c r="W41" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67284225219386051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -3150,47 +3816,63 @@
       <c r="F42" s="3">
         <v>1230015</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85363162916028057</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85157611342814454</v>
+      </c>
+      <c r="I42" s="4">
         <v>1242719</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>518630</v>
       </c>
-      <c r="I42" s="4">
+      <c r="K42" s="4">
         <v>522361</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>67844</v>
       </c>
-      <c r="K42" s="4">
+      <c r="M42" s="4">
         <v>68024</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>724120</v>
       </c>
-      <c r="M42" s="4">
+      <c r="O42" s="4">
         <v>736793</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>9322500</v>
       </c>
-      <c r="O42" s="4">
+      <c r="Q42" s="4">
         <v>9397435</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>93004</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="S42" s="4">
         <v>100090</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>6391905</v>
       </c>
-      <c r="S42" s="4">
+      <c r="U42" s="4">
         <v>6415016</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V42" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68564279967819786</v>
+      </c>
+      <c r="W42" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68263478278913337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
@@ -3209,47 +3891,63 @@
       <c r="F43" s="6">
         <v>1252844</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.87748979193339305</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="1"/>
+        <v>0.87530173741238426</v>
+      </c>
+      <c r="I43" s="7">
         <v>1266441</v>
       </c>
-      <c r="H43" s="6">
+      <c r="J43" s="6">
         <v>532265</v>
       </c>
-      <c r="I43" s="7">
+      <c r="K43" s="7">
         <v>535939</v>
       </c>
-      <c r="J43" s="6">
+      <c r="L43" s="6">
         <v>70278</v>
       </c>
-      <c r="K43" s="7">
+      <c r="M43" s="7">
         <v>70460</v>
       </c>
-      <c r="L43" s="6">
+      <c r="N43" s="6">
         <v>732365</v>
       </c>
-      <c r="M43" s="7">
+      <c r="O43" s="7">
         <v>746820</v>
       </c>
-      <c r="N43" s="6">
+      <c r="P43" s="6">
         <v>9624853</v>
       </c>
-      <c r="O43" s="7">
+      <c r="Q43" s="7">
         <v>9700138</v>
       </c>
-      <c r="P43" s="6">
+      <c r="R43" s="6">
         <v>92752</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="S43" s="7">
         <v>97319</v>
       </c>
-      <c r="R43" s="6">
+      <c r="T43" s="6">
         <v>6741844</v>
       </c>
-      <c r="S43" s="7">
+      <c r="U43" s="7">
         <v>6761405</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V43" s="9">
+        <f t="shared" si="2"/>
+        <v>0.70046202264076141</v>
+      </c>
+      <c r="W43" s="9">
+        <f t="shared" si="3"/>
+        <v>0.69704214517360474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>61</v>
       </c>
@@ -3268,47 +3966,63 @@
       <c r="F44" s="3">
         <v>1297219</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.88119394345882096</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="1"/>
+        <v>0.87912421610862568</v>
+      </c>
+      <c r="I44" s="4">
         <v>1310845</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>552891</v>
       </c>
-      <c r="I44" s="4">
+      <c r="K44" s="4">
         <v>556356</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>72540</v>
       </c>
-      <c r="K44" s="4">
+      <c r="M44" s="4">
         <v>72697</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>760114</v>
       </c>
-      <c r="M44" s="4">
+      <c r="O44" s="4">
         <v>775416</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>9989460</v>
       </c>
-      <c r="O44" s="4">
+      <c r="Q44" s="4">
         <v>10051518</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>90012</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="S44" s="4">
         <v>93286</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>7039317</v>
       </c>
-      <c r="S44" s="4">
+      <c r="U44" s="4">
         <v>7056608</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V44" s="9">
+        <f t="shared" si="2"/>
+        <v>0.70467442684589554</v>
+      </c>
+      <c r="W44" s="9">
+        <f t="shared" si="3"/>
+        <v>0.70204400967097702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>62</v>
       </c>
@@ -3327,47 +4041,63 @@
       <c r="F45" s="6">
         <v>1281014</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.86196019474087238</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85986138370411025</v>
+      </c>
+      <c r="I45" s="7">
         <v>1295575</v>
       </c>
-      <c r="H45" s="6">
+      <c r="J45" s="6">
         <v>542981</v>
       </c>
-      <c r="I45" s="7">
+      <c r="K45" s="7">
         <v>546800</v>
       </c>
-      <c r="J45" s="6">
+      <c r="L45" s="6">
         <v>70339</v>
       </c>
-      <c r="K45" s="7">
+      <c r="M45" s="7">
         <v>70523</v>
       </c>
-      <c r="L45" s="6">
+      <c r="N45" s="6">
         <v>756662</v>
       </c>
-      <c r="M45" s="7">
+      <c r="O45" s="7">
         <v>773167</v>
       </c>
-      <c r="N45" s="6">
+      <c r="P45" s="6">
         <v>9782285</v>
       </c>
-      <c r="O45" s="7">
+      <c r="Q45" s="7">
         <v>9845255</v>
       </c>
-      <c r="P45" s="6">
+      <c r="R45" s="6">
         <v>91061</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="S45" s="7">
         <v>95915</v>
       </c>
-      <c r="R45" s="6">
+      <c r="T45" s="6">
         <v>6743805</v>
       </c>
-      <c r="S45" s="7">
+      <c r="U45" s="7">
         <v>6765782</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V45" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68938954446737133</v>
+      </c>
+      <c r="W45" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68721246935706592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>63</v>
       </c>
@@ -3386,47 +4116,63 @@
       <c r="F46" s="3">
         <v>1150304</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80885675333314944</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="1"/>
+        <v>0.80733356591260719</v>
+      </c>
+      <c r="I46" s="4">
         <v>1162463</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>487408</v>
       </c>
-      <c r="I46" s="4">
+      <c r="K46" s="4">
         <v>490848</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>60469</v>
       </c>
-      <c r="K46" s="4">
+      <c r="M46" s="4">
         <v>60696</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>686618</v>
       </c>
-      <c r="M46" s="4">
+      <c r="O46" s="4">
         <v>699366</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8745567</v>
       </c>
-      <c r="O46" s="4">
+      <c r="Q46" s="4">
         <v>8803394</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>84110</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="S46" s="4">
         <v>87597</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5664638</v>
       </c>
-      <c r="S46" s="4">
+      <c r="U46" s="4">
         <v>5686805</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V46" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6477153511030217</v>
+      </c>
+      <c r="W46" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64597869867008106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>64</v>
       </c>
@@ -3445,47 +4191,63 @@
       <c r="F47" s="6">
         <v>1216397</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84685517548199285</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" si="1"/>
+        <v>0.84437498241162334</v>
+      </c>
+      <c r="I47" s="7">
         <v>1227752</v>
       </c>
-      <c r="H47" s="6">
+      <c r="J47" s="6">
         <v>512121</v>
       </c>
-      <c r="I47" s="7">
+      <c r="K47" s="7">
         <v>515597</v>
       </c>
-      <c r="J47" s="6">
+      <c r="L47" s="6">
         <v>67082</v>
       </c>
-      <c r="K47" s="7">
+      <c r="M47" s="7">
         <v>67332</v>
       </c>
-      <c r="L47" s="6">
+      <c r="N47" s="6">
         <v>722678</v>
       </c>
-      <c r="M47" s="7">
+      <c r="O47" s="7">
         <v>734128</v>
       </c>
-      <c r="N47" s="6">
+      <c r="P47" s="6">
         <v>9235235</v>
       </c>
-      <c r="O47" s="7">
+      <c r="Q47" s="7">
         <v>9343920</v>
       </c>
-      <c r="P47" s="6">
+      <c r="R47" s="6">
         <v>91170</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="S47" s="7">
         <v>99201</v>
       </c>
-      <c r="R47" s="6">
+      <c r="T47" s="6">
         <v>6231359</v>
       </c>
-      <c r="S47" s="7">
+      <c r="U47" s="7">
         <v>6262192</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V47" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67473745930666629</v>
+      </c>
+      <c r="W47" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67018895709723547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
@@ -3504,47 +4266,63 @@
       <c r="F48" s="3">
         <v>1166242</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85066466097888371</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="1"/>
+        <v>0.8475676340624958</v>
+      </c>
+      <c r="I48" s="4">
         <v>1178084</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>487735</v>
       </c>
-      <c r="I48" s="4">
+      <c r="K48" s="4">
         <v>491724</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>64660</v>
       </c>
-      <c r="K48" s="4">
+      <c r="M48" s="4">
         <v>64922</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>678145</v>
       </c>
-      <c r="M48" s="4">
+      <c r="O48" s="4">
         <v>688575</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8833211</v>
       </c>
-      <c r="O48" s="4">
+      <c r="Q48" s="4">
         <v>8933722</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>87239</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="S48" s="4">
         <v>93647</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6005658</v>
       </c>
-      <c r="S48" s="4">
+      <c r="U48" s="4">
         <v>6034658</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V48" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67989522722824125</v>
+      </c>
+      <c r="W48" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67549202896620242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>66</v>
       </c>
@@ -3563,47 +4341,63 @@
       <c r="F49" s="6">
         <v>1208663</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.82762767509693791</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="1"/>
+        <v>0.82574213599241408</v>
+      </c>
+      <c r="I49" s="7">
         <v>1216229</v>
       </c>
-      <c r="H49" s="6">
+      <c r="J49" s="6">
         <v>506717</v>
       </c>
-      <c r="I49" s="7">
+      <c r="K49" s="7">
         <v>509197</v>
       </c>
-      <c r="J49" s="6">
+      <c r="L49" s="6">
         <v>63646</v>
       </c>
-      <c r="K49" s="7">
+      <c r="M49" s="7">
         <v>63800</v>
       </c>
-      <c r="L49" s="6">
+      <c r="N49" s="6">
         <v>691068</v>
       </c>
-      <c r="M49" s="7">
+      <c r="O49" s="7">
         <v>698138</v>
       </c>
-      <c r="N49" s="6">
+      <c r="P49" s="6">
         <v>9186082</v>
       </c>
-      <c r="O49" s="7">
+      <c r="Q49" s="7">
         <v>9258496</v>
       </c>
-      <c r="P49" s="6">
+      <c r="R49" s="6">
         <v>84675</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="S49" s="7">
         <v>88053</v>
       </c>
-      <c r="R49" s="6">
+      <c r="T49" s="6">
         <v>6078197</v>
       </c>
-      <c r="S49" s="7">
+      <c r="U49" s="7">
         <v>6095793</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V49" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66167458553058855</v>
+      </c>
+      <c r="W49" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65839991722197644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>67</v>
       </c>
@@ -3622,47 +4416,63 @@
       <c r="F50" s="3">
         <v>1162110</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.79060730425030989</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="1"/>
+        <v>0.78879527064817823</v>
+      </c>
+      <c r="I50" s="4">
         <v>1171805</v>
       </c>
-      <c r="H50" s="3">
+      <c r="J50" s="3">
         <v>485025</v>
       </c>
-      <c r="I50" s="4">
+      <c r="K50" s="4">
         <v>488227</v>
       </c>
-      <c r="J50" s="3">
+      <c r="L50" s="3">
         <v>58034</v>
       </c>
-      <c r="K50" s="4">
+      <c r="M50" s="4">
         <v>58190</v>
       </c>
-      <c r="L50" s="3">
+      <c r="N50" s="3">
         <v>667552</v>
       </c>
-      <c r="M50" s="4">
+      <c r="O50" s="4">
         <v>676244</v>
       </c>
-      <c r="N50" s="3">
+      <c r="P50" s="3">
         <v>8789222</v>
       </c>
-      <c r="O50" s="4">
+      <c r="Q50" s="4">
         <v>8864508</v>
       </c>
-      <c r="P50" s="3">
+      <c r="R50" s="3">
         <v>80582</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="S50" s="4">
         <v>85146</v>
       </c>
-      <c r="R50" s="3">
+      <c r="T50" s="3">
         <v>5559112</v>
       </c>
-      <c r="S50" s="4">
+      <c r="U50" s="4">
         <v>5579741</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V50" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6324919315953107</v>
+      </c>
+      <c r="W50" s="9">
+        <f t="shared" si="3"/>
+        <v>0.62944734214239528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>68</v>
       </c>
@@ -3681,47 +4491,63 @@
       <c r="F51" s="6">
         <v>1066447</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.81849951133911236</v>
+      </c>
+      <c r="H51" s="8">
+        <f t="shared" si="1"/>
+        <v>0.81617982215169593</v>
+      </c>
+      <c r="I51" s="7">
         <v>1075524</v>
       </c>
-      <c r="H51" s="6">
+      <c r="J51" s="6">
         <v>442438</v>
       </c>
-      <c r="I51" s="7">
+      <c r="K51" s="7">
         <v>445465</v>
       </c>
-      <c r="J51" s="6">
+      <c r="L51" s="6">
         <v>55679</v>
       </c>
-      <c r="K51" s="7">
+      <c r="M51" s="7">
         <v>55829</v>
       </c>
-      <c r="L51" s="6">
+      <c r="N51" s="6">
         <v>607928</v>
       </c>
-      <c r="M51" s="7">
+      <c r="O51" s="7">
         <v>616034</v>
       </c>
-      <c r="N51" s="6">
+      <c r="P51" s="6">
         <v>8033370</v>
       </c>
-      <c r="O51" s="7">
+      <c r="Q51" s="7">
         <v>8106683</v>
       </c>
-      <c r="P51" s="6">
+      <c r="R51" s="6">
         <v>78411</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="S51" s="7">
         <v>83024</v>
       </c>
-      <c r="R51" s="6">
+      <c r="T51" s="6">
         <v>5254732</v>
       </c>
-      <c r="S51" s="7">
+      <c r="U51" s="7">
         <v>5273883</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V51" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65411303101936047</v>
+      </c>
+      <c r="W51" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65055991457911944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>69</v>
       </c>
@@ -3740,47 +4566,63 @@
       <c r="F52" s="3">
         <v>1270421</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.86459592194110457</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="1"/>
+        <v>0.86228813411694416</v>
+      </c>
+      <c r="I52" s="4">
         <v>1281302</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>532233</v>
       </c>
-      <c r="I52" s="4">
+      <c r="K52" s="4">
         <v>535815</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>70234</v>
       </c>
-      <c r="K52" s="4">
+      <c r="M52" s="4">
         <v>70412</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>729133</v>
       </c>
-      <c r="M52" s="4">
+      <c r="O52" s="4">
         <v>738969</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9673040</v>
       </c>
-      <c r="O52" s="4">
+      <c r="Q52" s="4">
         <v>9748297</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>89677</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="S52" s="4">
         <v>92122</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>6668300</v>
       </c>
-      <c r="S52" s="4">
+      <c r="U52" s="4">
         <v>6688686</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V52" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68936962940295921</v>
+      </c>
+      <c r="W52" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68613892252154407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>70</v>
       </c>
@@ -3799,47 +4641,63 @@
       <c r="F53" s="6">
         <v>1219268</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85647389073353264</v>
+      </c>
+      <c r="H53" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85442171965678082</v>
+      </c>
+      <c r="I53" s="7">
         <v>1229885</v>
       </c>
-      <c r="H53" s="6">
+      <c r="J53" s="6">
         <v>510650</v>
       </c>
-      <c r="I53" s="7">
+      <c r="K53" s="7">
         <v>513975</v>
       </c>
-      <c r="J53" s="6">
+      <c r="L53" s="6">
         <v>66938</v>
       </c>
-      <c r="K53" s="7">
+      <c r="M53" s="7">
         <v>67095</v>
       </c>
-      <c r="L53" s="6">
+      <c r="N53" s="6">
         <v>709028</v>
       </c>
-      <c r="M53" s="7">
+      <c r="O53" s="7">
         <v>719288</v>
       </c>
-      <c r="N53" s="6">
+      <c r="P53" s="6">
         <v>9232700</v>
       </c>
-      <c r="O53" s="7">
+      <c r="Q53" s="7">
         <v>9304670</v>
       </c>
-      <c r="P53" s="6">
+      <c r="R53" s="6">
         <v>81654</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="S53" s="7">
         <v>86557</v>
       </c>
-      <c r="R53" s="6">
+      <c r="T53" s="6">
         <v>6314764</v>
       </c>
-      <c r="S53" s="7">
+      <c r="U53" s="7">
         <v>6335988</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V53" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68395637245876073</v>
+      </c>
+      <c r="W53" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68094709430855693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
@@ -3858,47 +4716,63 @@
       <c r="F54" s="3">
         <v>1265331</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="8">
+        <f t="shared" si="0"/>
+        <v>0.87298855756463556</v>
+      </c>
+      <c r="H54" s="8">
+        <f t="shared" si="1"/>
+        <v>0.87115519436484101</v>
+      </c>
+      <c r="I54" s="4">
         <v>1294318</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>530802</v>
       </c>
-      <c r="I54" s="4">
+      <c r="K54" s="4">
         <v>533940</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>71366</v>
       </c>
-      <c r="K54" s="4">
+      <c r="M54" s="4">
         <v>71527</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>740681</v>
       </c>
-      <c r="M54" s="4">
+      <c r="O54" s="4">
         <v>751725</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9596310</v>
       </c>
-      <c r="O54" s="4">
+      <c r="Q54" s="4">
         <v>9657022</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>85606</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="S54" s="4">
         <v>89258</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6702487</v>
       </c>
-      <c r="S54" s="4">
+      <c r="U54" s="4">
         <v>6721900</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V54" s="9">
+        <f t="shared" si="2"/>
+        <v>0.69844419365360222</v>
+      </c>
+      <c r="W54" s="9">
+        <f t="shared" si="3"/>
+        <v>0.69606344481766735</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>72</v>
       </c>
@@ -3917,47 +4791,63 @@
       <c r="F55" s="6">
         <v>1273395</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="8">
+        <f t="shared" si="0"/>
+        <v>0.89292167837923442</v>
+      </c>
+      <c r="H55" s="8">
+        <f t="shared" si="1"/>
+        <v>0.8906990951274637</v>
+      </c>
+      <c r="I55" s="7">
         <v>1285551</v>
       </c>
-      <c r="H55" s="6">
+      <c r="J55" s="6">
         <v>538203</v>
       </c>
-      <c r="I55" s="7">
+      <c r="K55" s="7">
         <v>541513</v>
       </c>
-      <c r="J55" s="6">
+      <c r="L55" s="6">
         <v>72791</v>
       </c>
-      <c r="K55" s="7">
+      <c r="M55" s="7">
         <v>72933</v>
       </c>
-      <c r="L55" s="6">
+      <c r="N55" s="6">
         <v>741671</v>
       </c>
-      <c r="M55" s="7">
+      <c r="O55" s="7">
         <v>754225</v>
       </c>
-      <c r="N55" s="6">
+      <c r="P55" s="6">
         <v>9758815</v>
       </c>
-      <c r="O55" s="7">
+      <c r="Q55" s="7">
         <v>9827552</v>
       </c>
-      <c r="P55" s="6">
+      <c r="R55" s="6">
         <v>84254</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="S55" s="7">
         <v>89306</v>
       </c>
-      <c r="R55" s="6">
+      <c r="T55" s="6">
         <v>6959562</v>
       </c>
-      <c r="S55" s="7">
+      <c r="U55" s="7">
         <v>6977641</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V55" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71315646418135803</v>
+      </c>
+      <c r="W55" s="9">
+        <f t="shared" si="3"/>
+        <v>0.71000804676485052</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>73</v>
       </c>
@@ -3976,47 +4866,63 @@
       <c r="F56" s="3">
         <v>1311233</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="8">
+        <f t="shared" si="0"/>
+        <v>0.88977683640535687</v>
+      </c>
+      <c r="H56" s="8">
+        <f t="shared" si="1"/>
+        <v>0.88797781019736799</v>
+      </c>
+      <c r="I56" s="4">
         <v>1324093</v>
       </c>
-      <c r="H56" s="3">
+      <c r="J56" s="3">
         <v>560335</v>
       </c>
-      <c r="I56" s="4">
+      <c r="K56" s="4">
         <v>563578</v>
       </c>
-      <c r="J56" s="3">
+      <c r="L56" s="3">
         <v>75284</v>
       </c>
-      <c r="K56" s="4">
+      <c r="M56" s="4">
         <v>75420</v>
       </c>
-      <c r="L56" s="3">
+      <c r="N56" s="3">
         <v>769214</v>
       </c>
-      <c r="M56" s="4">
+      <c r="O56" s="4">
         <v>783588</v>
       </c>
-      <c r="N56" s="3">
+      <c r="P56" s="3">
         <v>10173744</v>
       </c>
-      <c r="O56" s="4">
+      <c r="Q56" s="4">
         <v>10238874</v>
       </c>
-      <c r="P56" s="3">
+      <c r="R56" s="3">
         <v>82172</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="S56" s="4">
         <v>87041</v>
       </c>
-      <c r="R56" s="3">
+      <c r="T56" s="3">
         <v>7241196</v>
       </c>
-      <c r="S56" s="4">
+      <c r="U56" s="4">
         <v>7259199</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V56" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71175331323453783</v>
+      </c>
+      <c r="W56" s="9">
+        <f t="shared" si="3"/>
+        <v>0.70898411290147723</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>74</v>
       </c>
@@ -4035,47 +4941,63 @@
       <c r="F57" s="6">
         <v>1304148</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8627204986227085</v>
+      </c>
+      <c r="H57" s="8">
+        <f t="shared" si="1"/>
+        <v>0.86104684329719816</v>
+      </c>
+      <c r="I57" s="7">
         <v>1316856</v>
       </c>
-      <c r="H57" s="6">
+      <c r="J57" s="6">
         <v>554980</v>
       </c>
-      <c r="I57" s="7">
+      <c r="K57" s="7">
         <v>558232</v>
       </c>
-      <c r="J57" s="6">
+      <c r="L57" s="6">
         <v>72718</v>
       </c>
-      <c r="K57" s="7">
+      <c r="M57" s="7">
         <v>72903</v>
       </c>
-      <c r="L57" s="6">
+      <c r="N57" s="6">
         <v>770258</v>
       </c>
-      <c r="M57" s="7">
+      <c r="O57" s="7">
         <v>784282</v>
       </c>
-      <c r="N57" s="6">
+      <c r="P57" s="6">
         <v>10685726</v>
       </c>
-      <c r="O57" s="7">
+      <c r="Q57" s="7">
         <v>10767370</v>
       </c>
-      <c r="P57" s="6">
+      <c r="R57" s="6">
         <v>82487</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="S57" s="7">
         <v>87412</v>
       </c>
-      <c r="R57" s="6">
+      <c r="T57" s="6">
         <v>6929660</v>
       </c>
-      <c r="S57" s="7">
+      <c r="U57" s="7">
         <v>6949794</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V57" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6484968826638452</v>
+      </c>
+      <c r="W57" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64544953874530175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
@@ -4094,47 +5016,63 @@
       <c r="F58" s="3">
         <v>1175862</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="8">
+        <f t="shared" si="0"/>
+        <v>0.82397846602425828</v>
+      </c>
+      <c r="H58" s="8">
+        <f t="shared" si="1"/>
+        <v>0.82181852094260166</v>
+      </c>
+      <c r="I58" s="4">
         <v>1187577</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>499863</v>
       </c>
-      <c r="I58" s="4">
+      <c r="K58" s="4">
         <v>503329</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>63981</v>
       </c>
-      <c r="K58" s="4">
+      <c r="M58" s="4">
         <v>64207</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>705387</v>
       </c>
-      <c r="M58" s="4">
+      <c r="O58" s="4">
         <v>716851</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9004979</v>
       </c>
-      <c r="O58" s="4">
+      <c r="Q58" s="4">
         <v>9101005</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>78078</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="S58" s="4">
         <v>84125</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5930281</v>
       </c>
-      <c r="S58" s="4">
+      <c r="U58" s="4">
         <v>5957437</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V58" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65855578341715182</v>
+      </c>
+      <c r="W58" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65459111383852664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>76</v>
       </c>
@@ -4153,47 +5091,63 @@
       <c r="F59" s="6">
         <v>1249188</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84526224318788401</v>
+      </c>
+      <c r="H59" s="8">
+        <f t="shared" si="1"/>
+        <v>0.84258838509554801</v>
+      </c>
+      <c r="I59" s="7">
         <v>1260928</v>
       </c>
-      <c r="H59" s="6">
+      <c r="J59" s="6">
         <v>527948</v>
       </c>
-      <c r="I59" s="7">
+      <c r="K59" s="7">
         <v>531637</v>
       </c>
-      <c r="J59" s="6">
+      <c r="L59" s="6">
         <v>69922</v>
       </c>
-      <c r="K59" s="7">
+      <c r="M59" s="7">
         <v>70174</v>
       </c>
-      <c r="L59" s="6">
+      <c r="N59" s="6">
         <v>740208</v>
       </c>
-      <c r="M59" s="7">
+      <c r="O59" s="7">
         <v>751035</v>
       </c>
-      <c r="N59" s="6">
+      <c r="P59" s="6">
         <v>9619144</v>
       </c>
-      <c r="O59" s="7">
+      <c r="Q59" s="7">
         <v>9735580</v>
       </c>
-      <c r="P59" s="6">
+      <c r="R59" s="6">
         <v>83431</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="S59" s="7">
         <v>89168</v>
       </c>
-      <c r="R59" s="6">
+      <c r="T59" s="6">
         <v>6452392</v>
       </c>
-      <c r="S59" s="7">
+      <c r="U59" s="7">
         <v>6481928</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V59" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67078650657480543</v>
+      </c>
+      <c r="W59" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66579782611821792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>77</v>
       </c>
@@ -4212,47 +5166,63 @@
       <c r="F60" s="3">
         <v>1197169</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="8">
+        <f t="shared" si="0"/>
+        <v>0.82029028105758739</v>
+      </c>
+      <c r="H60" s="8">
+        <f t="shared" si="1"/>
+        <v>0.81762876592768607</v>
+      </c>
+      <c r="I60" s="4">
         <v>1208320</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>505025</v>
       </c>
-      <c r="I60" s="4">
+      <c r="K60" s="4">
         <v>508812</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>64817</v>
       </c>
-      <c r="K60" s="4">
+      <c r="M60" s="4">
         <v>65076</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>694318</v>
       </c>
-      <c r="M60" s="4">
+      <c r="O60" s="4">
         <v>703803</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9214491</v>
       </c>
-      <c r="O60" s="4">
+      <c r="Q60" s="4">
         <v>9313540</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>82948</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="S60" s="4">
         <v>88846</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6034796</v>
       </c>
-      <c r="S60" s="4">
+      <c r="U60" s="4">
         <v>6064226</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V60" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65492450966635052</v>
+      </c>
+      <c r="W60" s="9">
+        <f t="shared" si="3"/>
+        <v>0.65111933808197531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>78</v>
       </c>
@@ -4271,47 +5241,63 @@
       <c r="F61" s="6">
         <v>1267611</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85729271838445953</v>
+      </c>
+      <c r="H61" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85493001997108387</v>
+      </c>
+      <c r="I61" s="7">
         <v>1277324</v>
       </c>
-      <c r="H61" s="6">
+      <c r="J61" s="6">
         <v>533427</v>
       </c>
-      <c r="I61" s="7">
+      <c r="K61" s="7">
         <v>536685</v>
       </c>
-      <c r="J61" s="6">
+      <c r="L61" s="6">
         <v>69718</v>
       </c>
-      <c r="K61" s="7">
+      <c r="M61" s="7">
         <v>69912</v>
       </c>
-      <c r="L61" s="6">
+      <c r="N61" s="6">
         <v>721355</v>
       </c>
-      <c r="M61" s="7">
+      <c r="O61" s="7">
         <v>729109</v>
       </c>
-      <c r="N61" s="6">
+      <c r="P61" s="6">
         <v>9721965</v>
       </c>
-      <c r="O61" s="7">
+      <c r="Q61" s="7">
         <v>9810171</v>
       </c>
-      <c r="P61" s="6">
+      <c r="R61" s="6">
         <v>82925</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="S61" s="7">
         <v>86948</v>
       </c>
-      <c r="R61" s="6">
+      <c r="T61" s="6">
         <v>6654994</v>
       </c>
-      <c r="S61" s="7">
+      <c r="U61" s="7">
         <v>6676211</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V61" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68453177932650444</v>
+      </c>
+      <c r="W61" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68053971740146013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>79</v>
       </c>
@@ -4330,47 +5316,63 @@
       <c r="F62" s="3">
         <v>1216448</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="8">
+        <f t="shared" si="0"/>
+        <v>0.79566724971767411</v>
+      </c>
+      <c r="H62" s="8">
+        <f t="shared" si="1"/>
+        <v>0.79333127812503745</v>
+      </c>
+      <c r="I62" s="4">
         <v>1226942</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>508546</v>
       </c>
-      <c r="I62" s="4">
+      <c r="K62" s="4">
         <v>512086</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>61612</v>
       </c>
-      <c r="K62" s="4">
+      <c r="M62" s="4">
         <v>61800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700444</v>
       </c>
-      <c r="M62" s="4">
+      <c r="O62" s="4">
         <v>709035</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9355622</v>
       </c>
-      <c r="O62" s="4">
+      <c r="Q62" s="4">
         <v>9445596</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>78467</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="S62" s="4">
         <v>81297</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>5880525</v>
       </c>
-      <c r="S62" s="4">
+      <c r="U62" s="4">
         <v>5901703</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V62" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6285552152491839</v>
+      </c>
+      <c r="W62" s="9">
+        <f t="shared" si="3"/>
+        <v>0.62481001728212815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>80</v>
       </c>
@@ -4389,47 +5391,63 @@
       <c r="F63" s="6">
         <v>1148017</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8079710023780432</v>
+      </c>
+      <c r="H63" s="8">
+        <f t="shared" si="1"/>
+        <v>0.80487800989024771</v>
+      </c>
+      <c r="I63" s="7">
         <v>1158195</v>
       </c>
-      <c r="H63" s="6">
+      <c r="J63" s="6">
         <v>480147</v>
       </c>
-      <c r="I63" s="7">
+      <c r="K63" s="7">
         <v>483642</v>
       </c>
-      <c r="J63" s="6">
+      <c r="L63" s="6">
         <v>59850</v>
       </c>
-      <c r="K63" s="7">
+      <c r="M63" s="7">
         <v>60030</v>
       </c>
-      <c r="L63" s="6">
+      <c r="N63" s="6">
         <v>660332</v>
       </c>
-      <c r="M63" s="7">
+      <c r="O63" s="7">
         <v>668719</v>
       </c>
-      <c r="N63" s="6">
+      <c r="P63" s="6">
         <v>8785500</v>
       </c>
-      <c r="O63" s="7">
+      <c r="Q63" s="7">
         <v>8894392</v>
       </c>
-      <c r="P63" s="6">
+      <c r="R63" s="6">
         <v>76501</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="S63" s="7">
         <v>83121</v>
       </c>
-      <c r="R63" s="6">
+      <c r="T63" s="6">
         <v>5643217</v>
       </c>
-      <c r="S63" s="7">
+      <c r="U63" s="7">
         <v>5668845</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V63" s="9">
+        <f t="shared" si="2"/>
+        <v>0.64233304877354735</v>
+      </c>
+      <c r="W63" s="9">
+        <f t="shared" si="3"/>
+        <v>0.63735047881856344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>81</v>
       </c>
@@ -4448,47 +5466,63 @@
       <c r="F64" s="3">
         <v>1089283</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="8">
+        <f t="shared" si="0"/>
+        <v>0.50068701243105973</v>
+      </c>
+      <c r="H64" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5000205429018667</v>
+      </c>
+      <c r="I64" s="4">
         <v>1096299</v>
       </c>
-      <c r="H64" s="3">
+      <c r="J64" s="3">
         <v>456208</v>
       </c>
-      <c r="I64" s="4">
+      <c r="K64" s="4">
         <v>458657</v>
       </c>
-      <c r="J64" s="3">
+      <c r="L64" s="3">
         <v>34411</v>
       </c>
-      <c r="K64" s="4">
+      <c r="M64" s="4">
         <v>34524</v>
       </c>
-      <c r="L64" s="3">
+      <c r="N64" s="3">
         <v>616088</v>
       </c>
-      <c r="M64" s="4">
+      <c r="O64" s="4">
         <v>621791</v>
       </c>
-      <c r="N64" s="3">
+      <c r="P64" s="3">
         <v>8311413</v>
       </c>
-      <c r="O64" s="4">
+      <c r="Q64" s="4">
         <v>8374605</v>
       </c>
-      <c r="P64" s="3">
+      <c r="R64" s="3">
         <v>69084</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="S64" s="4">
         <v>71714</v>
       </c>
-      <c r="R64" s="3">
+      <c r="T64" s="3">
         <v>3352123</v>
       </c>
-      <c r="S64" s="4">
+      <c r="U64" s="4">
         <v>3366131</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V64" s="9">
+        <f t="shared" si="2"/>
+        <v>0.40331565763847854</v>
+      </c>
+      <c r="W64" s="9">
+        <f t="shared" si="3"/>
+        <v>0.40194504696042382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>82</v>
       </c>
@@ -4507,47 +5541,63 @@
       <c r="F65" s="6">
         <v>345561</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13088825507777527</v>
+      </c>
+      <c r="H65" s="8">
+        <f t="shared" si="1"/>
+        <v>0.13142986782700145</v>
+      </c>
+      <c r="I65" s="7">
         <v>349117</v>
       </c>
-      <c r="H65" s="6">
+      <c r="J65" s="6">
         <v>142770</v>
       </c>
-      <c r="I65" s="7">
+      <c r="K65" s="7">
         <v>143933</v>
       </c>
-      <c r="J65" s="6">
+      <c r="L65" s="6">
         <v>2877</v>
       </c>
-      <c r="K65" s="7">
+      <c r="M65" s="7">
         <v>2904</v>
       </c>
-      <c r="L65" s="6">
+      <c r="N65" s="6">
         <v>217193</v>
       </c>
-      <c r="M65" s="7">
+      <c r="O65" s="7">
         <v>220123</v>
       </c>
-      <c r="N65" s="6">
+      <c r="P65" s="6">
         <v>2472437</v>
       </c>
-      <c r="O65" s="7">
+      <c r="Q65" s="7">
         <v>2509443</v>
       </c>
-      <c r="P65" s="6">
+      <c r="R65" s="6">
         <v>35618</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="S65" s="7">
         <v>39143</v>
       </c>
-      <c r="R65" s="6">
+      <c r="T65" s="6">
         <v>306032</v>
       </c>
-      <c r="S65" s="7">
+      <c r="U65" s="7">
         <v>312633</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V65" s="9">
+        <f t="shared" si="2"/>
+        <v>0.12377747137743045</v>
+      </c>
+      <c r="W65" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12458262650317221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>83</v>
       </c>
@@ -4566,47 +5616,63 @@
       <c r="F66" s="3">
         <v>325361</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38957372674229079</v>
+      </c>
+      <c r="H66" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38845213784346977</v>
+      </c>
+      <c r="I66" s="4">
         <v>330607</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>133759</v>
       </c>
-      <c r="I66" s="4">
+      <c r="K66" s="4">
         <v>135464</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8238</v>
       </c>
-      <c r="K66" s="4">
+      <c r="M66" s="4">
         <v>8285</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>214272</v>
       </c>
-      <c r="M66" s="4">
+      <c r="O66" s="4">
         <v>218891</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2238907</v>
       </c>
-      <c r="O66" s="4">
+      <c r="Q66" s="4">
         <v>2277909</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>39597</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="S66" s="4">
         <v>42468</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>755210</v>
       </c>
-      <c r="S66" s="4">
+      <c r="U66" s="4">
         <v>763483</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V66" s="9">
+        <f t="shared" si="2"/>
+        <v>0.33731191157113716</v>
+      </c>
+      <c r="W66" s="9">
+        <f t="shared" si="3"/>
+        <v>0.33516834956971503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>84</v>
       </c>
@@ -4625,47 +5691,63 @@
       <c r="F67" s="6">
         <v>431798</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="8">
+        <f t="shared" ref="G67:G70" si="4">D67/B67</f>
+        <v>0.56164314410028615</v>
+      </c>
+      <c r="H67" s="8">
+        <f t="shared" ref="H67:H70" si="5">E67/C67</f>
+        <v>0.55888998033415671</v>
+      </c>
+      <c r="I67" s="7">
         <v>439988</v>
       </c>
-      <c r="H67" s="6">
+      <c r="J67" s="6">
         <v>179923</v>
       </c>
-      <c r="I67" s="7">
+      <c r="K67" s="7">
         <v>182430</v>
       </c>
-      <c r="J67" s="6">
+      <c r="L67" s="6">
         <v>16206</v>
       </c>
-      <c r="K67" s="7">
+      <c r="M67" s="7">
         <v>16283</v>
       </c>
-      <c r="L67" s="6">
+      <c r="N67" s="6">
         <v>272520</v>
       </c>
-      <c r="M67" s="7">
+      <c r="O67" s="7">
         <v>279262</v>
       </c>
-      <c r="N67" s="6">
+      <c r="P67" s="6">
         <v>3129409</v>
       </c>
-      <c r="O67" s="7">
+      <c r="Q67" s="7">
         <v>3210495</v>
       </c>
-      <c r="P67" s="6">
+      <c r="R67" s="6">
         <v>44017</v>
       </c>
-      <c r="Q67" s="7">
+      <c r="S67" s="7">
         <v>46780</v>
       </c>
-      <c r="R67" s="6">
+      <c r="T67" s="6">
         <v>1464827</v>
       </c>
-      <c r="S67" s="7">
+      <c r="U67" s="7">
         <v>1476161</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V67" s="9">
+        <f t="shared" ref="V67:V70" si="6">T67/P67</f>
+        <v>0.46808422932253341</v>
+      </c>
+      <c r="W67" s="9">
+        <f t="shared" ref="W67:W70" si="7">U67/Q67</f>
+        <v>0.45979233731870006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>85</v>
       </c>
@@ -4684,47 +5766,63 @@
       <c r="F68" s="3">
         <v>670570</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="8">
+        <f t="shared" si="4"/>
+        <v>0.49806152293201267</v>
+      </c>
+      <c r="H68" s="8">
+        <f t="shared" si="5"/>
+        <v>0.4965215095363687</v>
+      </c>
+      <c r="I68" s="4">
         <v>680006</v>
       </c>
-      <c r="H68" s="3">
+      <c r="J68" s="3">
         <v>282831</v>
       </c>
-      <c r="I68" s="4">
+      <c r="K68" s="4">
         <v>285666</v>
       </c>
-      <c r="J68" s="3">
+      <c r="L68" s="3">
         <v>22874</v>
       </c>
-      <c r="K68" s="4">
+      <c r="M68" s="4">
         <v>22958</v>
       </c>
-      <c r="L68" s="3">
+      <c r="N68" s="3">
         <v>409958</v>
       </c>
-      <c r="M68" s="4">
+      <c r="O68" s="4">
         <v>419056</v>
       </c>
-      <c r="N68" s="3">
+      <c r="P68" s="3">
         <v>5031864</v>
       </c>
-      <c r="O68" s="4">
+      <c r="Q68" s="4">
         <v>5099372</v>
       </c>
-      <c r="P68" s="3">
+      <c r="R68" s="3">
         <v>49480</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="S68" s="4">
         <v>53595</v>
       </c>
-      <c r="R68" s="3">
+      <c r="T68" s="3">
         <v>2080931</v>
       </c>
-      <c r="S68" s="4">
+      <c r="U68" s="4">
         <v>2093621</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V68" s="9">
+        <f t="shared" si="6"/>
+        <v>0.41355072394643416</v>
+      </c>
+      <c r="W68" s="9">
+        <f t="shared" si="7"/>
+        <v>0.41056447735132873</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>86</v>
       </c>
@@ -4743,47 +5841,63 @@
       <c r="F69" s="6">
         <v>709900</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="8">
+        <f t="shared" si="4"/>
+        <v>0.49085178418979147</v>
+      </c>
+      <c r="H69" s="8">
+        <f t="shared" si="5"/>
+        <v>0.48919355990215158</v>
+      </c>
+      <c r="I69" s="7">
         <v>720194</v>
       </c>
-      <c r="H69" s="6">
+      <c r="J69" s="6">
         <v>299368</v>
       </c>
-      <c r="I69" s="7">
+      <c r="K69" s="7">
         <v>302347</v>
       </c>
-      <c r="J69" s="6">
+      <c r="L69" s="6">
         <v>23910</v>
       </c>
-      <c r="K69" s="7">
+      <c r="M69" s="7">
         <v>24007</v>
       </c>
-      <c r="L69" s="6">
+      <c r="N69" s="6">
         <v>434467</v>
       </c>
-      <c r="M69" s="7">
+      <c r="O69" s="7">
         <v>444552</v>
       </c>
-      <c r="N69" s="6">
+      <c r="P69" s="6">
         <v>5373937</v>
       </c>
-      <c r="O69" s="7">
+      <c r="Q69" s="7">
         <v>5437371</v>
       </c>
-      <c r="P69" s="6">
+      <c r="R69" s="6">
         <v>57765</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="S69" s="7">
         <v>61328</v>
       </c>
-      <c r="R69" s="6">
+      <c r="T69" s="6">
         <v>2180262</v>
       </c>
-      <c r="S69" s="7">
+      <c r="U69" s="7">
         <v>2192787</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V69" s="9">
+        <f t="shared" si="6"/>
+        <v>0.40571037583804948</v>
+      </c>
+      <c r="W69" s="9">
+        <f t="shared" si="7"/>
+        <v>0.40328073990169144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>87</v>
       </c>
@@ -4802,47 +5916,64 @@
       <c r="F70" s="3">
         <v>613076</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="8">
+        <f t="shared" si="4"/>
+        <v>0.5889700930800178</v>
+      </c>
+      <c r="H70" s="8">
+        <f t="shared" si="5"/>
+        <v>0.58614161463345416</v>
+      </c>
+      <c r="I70" s="4">
         <v>621893</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>256774</v>
       </c>
-      <c r="I70" s="4">
+      <c r="K70" s="4">
         <v>259491</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>23850</v>
       </c>
-      <c r="K70" s="4">
+      <c r="M70" s="4">
         <v>23954</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>378519</v>
       </c>
-      <c r="M70" s="4">
+      <c r="O70" s="4">
         <v>386693</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>4597682</v>
       </c>
-      <c r="O70" s="4">
+      <c r="Q70" s="4">
         <v>4672192</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>57970</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="S70" s="4">
         <v>62895</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>2200389</v>
       </c>
-      <c r="S70" s="4">
+      <c r="U70" s="4">
         <v>2215943</v>
+      </c>
+      <c r="V70" s="9">
+        <f t="shared" si="6"/>
+        <v>0.47858660081319238</v>
+      </c>
+      <c r="W70" s="9">
+        <f t="shared" si="7"/>
+        <v>0.47428337705299783</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>